--- a/output/BROLab_puttenlijst_v5_GTA.xlsx
+++ b/output/BROLab_puttenlijst_v5_GTA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv57d1\geo_info\02_Werkplaatsen\06_HYD\Projecten\HKC21009 Pilot ArtDiver tbv beheer grondwatermeetreeksen FEWS-BRO\02. Projectgegevens\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv57d1\geo_info\02_Werkplaatsen\06_HYD\Projecten\HKC21009 Pilot ArtDiver tbv beheer grondwatermeetreeksen FEWS-BRO\02. Projectgegevens\GMW_processing\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E627DE5-F2FF-4ADA-B62C-55BE2CF5CB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C806701-C054-4BC2-B4A1-929A3E0FF82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B93D90-31E5-4D63-8013-0811BEDDE5BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B93D90-31E5-4D63-8013-0811BEDDE5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Puttenlijst" sheetId="1" r:id="rId1"/>
@@ -1561,8 +1561,8 @@
   </sheetPr>
   <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +1756,7 @@
         <v>17</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y2" s="21"/>
       <c r="Z2" s="3"/>
@@ -1886,7 +1886,7 @@
         <v>17</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="3"/>
@@ -2914,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Y20" s="21"/>
       <c r="Z20" s="3"/>
@@ -3044,7 +3044,7 @@
         <v>17</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="Y22" s="21"/>
       <c r="Z22" s="3"/>

--- a/output/BROLab_puttenlijst_v5_GTA.xlsx
+++ b/output/BROLab_puttenlijst_v5_GTA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv57d1\geo_info\02_Werkplaatsen\06_HYD\Projecten\HKC21009 Pilot ArtDiver tbv beheer grondwatermeetreeksen FEWS-BRO\02. Projectgegevens\GMW_processing\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C806701-C054-4BC2-B4A1-929A3E0FF82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9B9FC-0E73-4386-A6CC-9BDD775DFB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B93D90-31E5-4D63-8013-0811BEDDE5BE}"/>
   </bookViews>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="197">
   <si>
     <t>X-coordinaat(RD)</t>
   </si>
@@ -1561,8 +1561,8 @@
   </sheetPr>
   <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1749,9 @@
       <c r="S2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U2" s="21"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3" t="s">
@@ -1814,7 +1816,9 @@
       <c r="S3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U3" s="21"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3" t="s">
@@ -1879,7 +1883,9 @@
       <c r="S4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U4" s="21"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3" t="s">
@@ -1944,7 +1950,9 @@
       <c r="S5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U5" s="21"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3" t="s">
@@ -2009,7 +2017,9 @@
       <c r="S6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U6" s="21"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3" t="s">
@@ -2074,7 +2084,9 @@
       <c r="S7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U7" s="21"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3" t="s">
@@ -2139,7 +2151,9 @@
       <c r="S8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U8" s="21"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3" t="s">
@@ -2204,7 +2218,9 @@
       <c r="S9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U9" s="21"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3" t="s">
@@ -2269,7 +2285,9 @@
       <c r="S10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="3"/>
+      <c r="T10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U10" s="21"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3" t="s">
@@ -2334,7 +2352,9 @@
       <c r="S11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="3"/>
+      <c r="T11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U11" s="21"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3" t="s">
@@ -2397,7 +2417,9 @@
       <c r="S12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U12" s="21"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3" t="s">
@@ -2460,7 +2482,9 @@
       <c r="S13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U13" s="21"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
@@ -2523,7 +2547,9 @@
       <c r="S14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="3"/>
+      <c r="T14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U14" s="21"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
@@ -2586,7 +2612,9 @@
       <c r="S15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="3"/>
+      <c r="T15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U15" s="21"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
@@ -2649,7 +2677,9 @@
       <c r="S16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U16" s="21"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
@@ -2712,7 +2742,9 @@
       <c r="S17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U17" s="21"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
@@ -2777,7 +2809,9 @@
       <c r="S18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U18" s="21"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3" t="s">
@@ -2842,7 +2876,9 @@
       <c r="S19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T19" s="3"/>
+      <c r="T19" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U19" s="21"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
@@ -2907,7 +2943,9 @@
       <c r="S20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U20" s="21"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3" t="s">
@@ -2972,7 +3010,9 @@
       <c r="S21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U21" s="21"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3" t="s">
@@ -3037,7 +3077,9 @@
       <c r="S22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U22" s="21"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3" t="s">
@@ -3102,7 +3144,9 @@
       <c r="S23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U23" s="21"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
@@ -3165,7 +3209,9 @@
       <c r="S24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T24" s="3"/>
+      <c r="T24" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U24" s="21"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3" t="s">
@@ -3228,7 +3274,9 @@
       <c r="S25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T25" s="3"/>
+      <c r="T25" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U25" s="21"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3" t="s">
@@ -3291,7 +3339,9 @@
       <c r="S26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T26" s="3"/>
+      <c r="T26" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U26" s="21"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
@@ -3354,7 +3404,9 @@
       <c r="S27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T27" s="3"/>
+      <c r="T27" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U27" s="21"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3" t="s">
@@ -3417,7 +3469,9 @@
       <c r="S28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T28" s="3"/>
+      <c r="T28" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="U28" s="21"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3" t="s">
